--- a/statproInExcel.xlsx
+++ b/statproInExcel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\STIS\Semester 7\1.Statistik Produksi\UAS\Tugas Akhir\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDBDC6E8-3D39-49F9-A4D3-AA2FAA3DCF30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BA015FB-C2DC-4211-9E75-F2BB2F0A9719}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="69">
   <si>
     <t>Provinsi</t>
   </si>
@@ -383,13 +383,13 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -840,7 +840,7 @@
       <c r="B12" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="14">
+      <c r="C12" s="13">
         <v>12943.98</v>
       </c>
       <c r="D12" s="3">
@@ -1099,7 +1099,7 @@
         <v>292.91000000000003</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:4" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1155,7 +1155,7 @@
         <v>100.04</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:4" ht="47" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1177,10 +1177,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:DH39"/>
+  <dimension ref="A1:DP39"/>
   <sheetViews>
-    <sheetView zoomScale="63" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="CS29" zoomScale="63" workbookViewId="0">
+      <selection activeCell="DO42" sqref="DO42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1209,7 +1209,7 @@
     <col min="111" max="111" width="13.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:112" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:120" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1243,18 +1243,18 @@
       <c r="Q1" t="s">
         <v>48</v>
       </c>
-      <c r="R1" s="13" t="s">
+      <c r="R1" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="S1" s="13"/>
-      <c r="T1" s="13" t="s">
+      <c r="S1" s="15"/>
+      <c r="T1" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="U1" s="13"/>
-      <c r="V1" s="13" t="s">
+      <c r="U1" s="15"/>
+      <c r="V1" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="W1" s="13"/>
+      <c r="W1" s="15"/>
       <c r="AB1" t="s">
         <v>55</v>
       </c>
@@ -1279,18 +1279,18 @@
       <c r="AJ1" t="s">
         <v>56</v>
       </c>
-      <c r="AK1" s="13" t="s">
+      <c r="AK1" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="AL1" s="13"/>
-      <c r="AM1" s="13" t="s">
+      <c r="AL1" s="15"/>
+      <c r="AM1" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="AN1" s="13"/>
-      <c r="AO1" s="13" t="s">
+      <c r="AN1" s="15"/>
+      <c r="AO1" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="AP1" s="13"/>
+      <c r="AP1" s="15"/>
       <c r="AV1" t="s">
         <v>57</v>
       </c>
@@ -1315,18 +1315,18 @@
       <c r="BD1" t="s">
         <v>59</v>
       </c>
-      <c r="BE1" s="13" t="s">
+      <c r="BE1" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="BF1" s="13"/>
-      <c r="BG1" s="13" t="s">
+      <c r="BF1" s="15"/>
+      <c r="BG1" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="BH1" s="13"/>
-      <c r="BI1" s="13" t="s">
+      <c r="BH1" s="15"/>
+      <c r="BI1" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="BJ1" s="13"/>
+      <c r="BJ1" s="15"/>
       <c r="BP1" t="s">
         <v>58</v>
       </c>
@@ -1351,18 +1351,18 @@
       <c r="BX1" t="s">
         <v>60</v>
       </c>
-      <c r="BY1" s="13" t="s">
+      <c r="BY1" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="BZ1" s="13"/>
-      <c r="CA1" s="13" t="s">
+      <c r="BZ1" s="15"/>
+      <c r="CA1" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="CB1" s="13"/>
-      <c r="CC1" s="13" t="s">
+      <c r="CB1" s="15"/>
+      <c r="CC1" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="CD1" s="13"/>
+      <c r="CD1" s="15"/>
       <c r="CI1" t="s">
         <v>61</v>
       </c>
@@ -1387,18 +1387,18 @@
       <c r="CQ1" t="s">
         <v>62</v>
       </c>
-      <c r="CR1" s="13" t="s">
+      <c r="CR1" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="CS1" s="13"/>
-      <c r="CT1" s="13" t="s">
+      <c r="CS1" s="15"/>
+      <c r="CT1" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="CU1" s="13"/>
-      <c r="CV1" s="13" t="s">
+      <c r="CU1" s="15"/>
+      <c r="CV1" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="CW1" s="13"/>
+      <c r="CW1" s="15"/>
       <c r="DB1" t="s">
         <v>63</v>
       </c>
@@ -1420,8 +1420,23 @@
       <c r="DH1" t="s">
         <v>46</v>
       </c>
+      <c r="DJ1" t="s">
+        <v>62</v>
+      </c>
+      <c r="DK1" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="DL1" s="15"/>
+      <c r="DM1" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="DN1" s="15"/>
+      <c r="DO1" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="DP1" s="15"/>
     </row>
-    <row r="2" spans="1:112" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:120" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -1679,8 +1694,29 @@
         <f>IF(AND(DD2&lt;DE2),1,IF(AND(DD2&lt;DF2),1,IF(AND(DE2&lt;DF2),2,3)))</f>
         <v>1</v>
       </c>
+      <c r="DJ2" t="s">
+        <v>0</v>
+      </c>
+      <c r="DK2" t="s">
+        <v>51</v>
+      </c>
+      <c r="DL2" t="s">
+        <v>43</v>
+      </c>
+      <c r="DM2" t="s">
+        <v>51</v>
+      </c>
+      <c r="DN2" t="s">
+        <v>43</v>
+      </c>
+      <c r="DO2" t="s">
+        <v>51</v>
+      </c>
+      <c r="DP2" t="s">
+        <v>43</v>
+      </c>
     </row>
-    <row r="3" spans="1:112" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:120" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -1983,8 +2019,35 @@
         <f t="shared" ref="DH3:DH35" si="23">IF(AND(DD3&lt;DE3),1,IF(AND(DD3&lt;DF3),1,IF(AND(DE3&lt;DF3),2,3)))</f>
         <v>1</v>
       </c>
+      <c r="DJ3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="DK3">
+        <f>IF(DH2=1,B2,0)</f>
+        <v>93303.43</v>
+      </c>
+      <c r="DL3">
+        <f>IF(DH2=1,C2,0)</f>
+        <v>20166.21</v>
+      </c>
+      <c r="DM3">
+        <f>IF(DH2=2,B2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="DN3">
+        <f>IF(DH2=2,C2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="DO3">
+        <f>IF(DH2=3,B2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="DP3">
+        <f>IF(DH2=3,C2,0)</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:112" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:120" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -2301,8 +2364,35 @@
         <f t="shared" si="23"/>
         <v>1</v>
       </c>
+      <c r="DJ4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="DK4">
+        <f t="shared" ref="DK4:DK39" si="58">IF(DH3=1,B3,0)</f>
+        <v>64425.18</v>
+      </c>
+      <c r="DL4">
+        <f t="shared" ref="DL4:DL36" si="59">IF(DH3=1,C3,0)</f>
+        <v>6129.92</v>
+      </c>
+      <c r="DM4">
+        <f t="shared" ref="DM4:DM39" si="60">IF(DH3=2,B3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="DN4">
+        <f t="shared" ref="DN4:DN39" si="61">IF(DH3=2,C3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="DO4">
+        <f t="shared" ref="DO4:DO39" si="62">IF(DH3=3,B3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="DP4">
+        <f t="shared" ref="DP4:DP39" si="63">IF(DH3=3,C3,0)</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:112" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:120" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -2635,8 +2725,35 @@
         <f t="shared" si="23"/>
         <v>2</v>
       </c>
+      <c r="DJ5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="DK5">
+        <f t="shared" si="58"/>
+        <v>55835.19</v>
+      </c>
+      <c r="DL5">
+        <f t="shared" si="59"/>
+        <v>11563.41</v>
+      </c>
+      <c r="DM5">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="DN5">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="DO5">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="DP5">
+        <f t="shared" si="63"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:112" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:120" ht="47" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
@@ -2673,7 +2790,7 @@
         <v>5</v>
       </c>
       <c r="R6">
-        <f t="shared" ref="R6:R36" si="58">IF($O5=1,B5,0)</f>
+        <f t="shared" ref="R6:R36" si="64">IF($O5=1,B5,0)</f>
         <v>0</v>
       </c>
       <c r="S6">
@@ -2734,7 +2851,7 @@
         <v>5</v>
       </c>
       <c r="AK6">
-        <f t="shared" ref="AK6:AK36" si="59">IF($AH5=1,B5,0)</f>
+        <f t="shared" ref="AK6:AK36" si="65">IF($AH5=1,B5,0)</f>
         <v>0</v>
       </c>
       <c r="AL6">
@@ -2969,8 +3086,35 @@
         <f t="shared" si="23"/>
         <v>2</v>
       </c>
+      <c r="DJ6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="DK6">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="DL6">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="DM6">
+        <f t="shared" si="60"/>
+        <v>21431.69</v>
+      </c>
+      <c r="DN6">
+        <f t="shared" si="61"/>
+        <v>701.74</v>
+      </c>
+      <c r="DO6">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="DP6">
+        <f t="shared" si="63"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:112" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:120" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>27</v>
       </c>
@@ -3007,7 +3151,7 @@
         <v>16</v>
       </c>
       <c r="R7">
-        <f t="shared" si="58"/>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="S7">
@@ -3057,7 +3201,7 @@
         <v>16</v>
       </c>
       <c r="AK7">
-        <f t="shared" si="59"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="AL7">
@@ -3297,8 +3441,35 @@
         <f t="shared" si="23"/>
         <v>2</v>
       </c>
+      <c r="DJ7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="DK7">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="DL7">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="DM7">
+        <f t="shared" si="60"/>
+        <v>20562.150000000001</v>
+      </c>
+      <c r="DN7">
+        <f t="shared" si="61"/>
+        <v>2028.51</v>
+      </c>
+      <c r="DO7">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="DP7">
+        <f t="shared" si="63"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:112" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:120" ht="62.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -3335,7 +3506,7 @@
         <v>27</v>
       </c>
       <c r="R8">
-        <f t="shared" si="58"/>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="S8">
@@ -3385,7 +3556,7 @@
         <v>27</v>
       </c>
       <c r="AK8">
-        <f t="shared" si="59"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="AL8">
@@ -3603,8 +3774,35 @@
         <f t="shared" si="23"/>
         <v>2</v>
       </c>
+      <c r="DJ8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="DK8">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="DL8">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="DM8">
+        <f t="shared" si="60"/>
+        <v>15994.36</v>
+      </c>
+      <c r="DN8">
+        <f t="shared" si="61"/>
+        <v>771.46</v>
+      </c>
+      <c r="DO8">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="DP8">
+        <f t="shared" si="63"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:112" ht="47" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:120" ht="47" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
@@ -3641,7 +3839,7 @@
         <v>10</v>
       </c>
       <c r="R9">
-        <f t="shared" si="58"/>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="S9">
@@ -3691,7 +3889,7 @@
         <v>10</v>
       </c>
       <c r="AK9">
-        <f t="shared" si="59"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="AL9">
@@ -3898,8 +4096,35 @@
         <f t="shared" si="23"/>
         <v>2</v>
       </c>
+      <c r="DJ9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="DK9">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="DL9">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="DM9">
+        <f t="shared" si="60"/>
+        <v>14328.27</v>
+      </c>
+      <c r="DN9">
+        <f t="shared" si="61"/>
+        <v>2703.14</v>
+      </c>
+      <c r="DO9">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="DP9">
+        <f t="shared" si="63"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:112" ht="47" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:120" ht="62.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>4</v>
       </c>
@@ -3936,7 +4161,7 @@
         <v>18</v>
       </c>
       <c r="R10">
-        <f t="shared" si="58"/>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="S10">
@@ -3986,7 +4211,7 @@
         <v>18</v>
       </c>
       <c r="AK10">
-        <f t="shared" si="59"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="AL10">
@@ -4182,8 +4407,35 @@
         <f t="shared" si="23"/>
         <v>2</v>
       </c>
+      <c r="DJ10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="DK10">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="DL10">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="DM10">
+        <f t="shared" si="60"/>
+        <v>13489.27</v>
+      </c>
+      <c r="DN10">
+        <f t="shared" si="61"/>
+        <v>467.03</v>
+      </c>
+      <c r="DO10">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="DP10">
+        <f t="shared" si="63"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:112" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:120" ht="47" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -4220,7 +4472,7 @@
         <v>4</v>
       </c>
       <c r="R11">
-        <f t="shared" si="58"/>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="S11">
@@ -4270,7 +4522,7 @@
         <v>4</v>
       </c>
       <c r="AK11">
-        <f t="shared" si="59"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="AL11">
@@ -4466,8 +4718,35 @@
         <f t="shared" si="23"/>
         <v>2</v>
       </c>
+      <c r="DJ11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="DK11">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="DL11">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="DM11">
+        <f>IF(DH10=2,B10,0)</f>
+        <v>13286.02</v>
+      </c>
+      <c r="DN11">
+        <f t="shared" si="61"/>
+        <v>843.26</v>
+      </c>
+      <c r="DO11">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="DP11">
+        <f t="shared" si="63"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:112" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:120" ht="62.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
         <v>3</v>
       </c>
@@ -4504,7 +4783,7 @@
         <v>8</v>
       </c>
       <c r="R12">
-        <f t="shared" si="58"/>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="S12">
@@ -4554,7 +4833,7 @@
         <v>8</v>
       </c>
       <c r="AK12">
-        <f t="shared" si="59"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="AL12">
@@ -4750,8 +5029,35 @@
         <f t="shared" si="23"/>
         <v>2</v>
       </c>
+      <c r="DJ12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="DK12">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="DL12">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="DM12">
+        <f>IF(DH11=2,B11,0)</f>
+        <v>12974.83</v>
+      </c>
+      <c r="DN12">
+        <f t="shared" si="61"/>
+        <v>1317.94</v>
+      </c>
+      <c r="DO12">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="DP12">
+        <f t="shared" si="63"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:112" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:120" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
@@ -4788,7 +5094,7 @@
         <v>3</v>
       </c>
       <c r="R13">
-        <f t="shared" si="58"/>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="S13">
@@ -4838,7 +5144,7 @@
         <v>3</v>
       </c>
       <c r="AK13">
-        <f t="shared" si="59"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="AL13">
@@ -5034,8 +5340,35 @@
         <f t="shared" si="23"/>
         <v>3</v>
       </c>
+      <c r="DJ13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="DK13">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="DL13">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="DM13">
+        <f>IF(DH12=2,B12,0)</f>
+        <v>12943.98</v>
+      </c>
+      <c r="DN13">
+        <f t="shared" si="61"/>
+        <v>1984.43</v>
+      </c>
+      <c r="DO13">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="DP13">
+        <f t="shared" si="63"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:112" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:120" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
@@ -5072,7 +5405,7 @@
         <v>6</v>
       </c>
       <c r="R14">
-        <f t="shared" si="58"/>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="S14">
@@ -5122,7 +5455,7 @@
         <v>6</v>
       </c>
       <c r="AK14">
-        <f t="shared" si="59"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="AL14">
@@ -5318,8 +5651,35 @@
         <f t="shared" si="23"/>
         <v>3</v>
       </c>
+      <c r="DJ14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="DK14">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="DL14">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="DM14">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="DN14">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="DO14">
+        <f t="shared" si="62"/>
+        <v>8912.0499999999993</v>
+      </c>
+      <c r="DP14">
+        <f t="shared" si="63"/>
+        <v>584.36</v>
+      </c>
     </row>
-    <row r="15" spans="1:112" ht="47" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:120" ht="47" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
         <v>11</v>
       </c>
@@ -5356,7 +5716,7 @@
         <v>14</v>
       </c>
       <c r="R15">
-        <f t="shared" si="58"/>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="S15">
@@ -5406,7 +5766,7 @@
         <v>14</v>
       </c>
       <c r="AK15">
-        <f t="shared" si="59"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="AL15">
@@ -5602,8 +5962,35 @@
         <f t="shared" si="23"/>
         <v>3</v>
       </c>
+      <c r="DJ15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="DK15">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="DL15">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="DM15">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="DN15">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="DO15">
+        <f t="shared" si="62"/>
+        <v>7645.34</v>
+      </c>
+      <c r="DP15">
+        <f t="shared" si="63"/>
+        <v>1890.64</v>
+      </c>
     </row>
-    <row r="16" spans="1:112" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:120" ht="47" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
         <v>23</v>
       </c>
@@ -5640,7 +6027,7 @@
         <v>11</v>
       </c>
       <c r="R16">
-        <f t="shared" si="58"/>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="S16">
@@ -5690,7 +6077,7 @@
         <v>11</v>
       </c>
       <c r="AK16">
-        <f t="shared" si="59"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="AL16">
@@ -5886,8 +6273,35 @@
         <f t="shared" si="23"/>
         <v>3</v>
       </c>
+      <c r="DJ16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="DK16">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="DL16">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="DM16">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="DN16">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="DO16">
+        <f t="shared" si="62"/>
+        <v>7602.69</v>
+      </c>
+      <c r="DP16">
+        <f t="shared" si="63"/>
+        <v>837.63</v>
+      </c>
     </row>
-    <row r="17" spans="1:112" ht="47" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:120" ht="47" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
         <v>19</v>
       </c>
@@ -5924,7 +6338,7 @@
         <v>23</v>
       </c>
       <c r="R17">
-        <f t="shared" si="58"/>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="S17">
@@ -5974,7 +6388,7 @@
         <v>23</v>
       </c>
       <c r="AK17">
-        <f t="shared" si="59"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="AL17">
@@ -6170,8 +6584,35 @@
         <f t="shared" si="23"/>
         <v>3</v>
       </c>
+      <c r="DJ17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="DK17">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="DL17">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="DM17">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="DN17">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="DO17">
+        <f t="shared" si="62"/>
+        <v>7529.8</v>
+      </c>
+      <c r="DP17">
+        <f t="shared" si="63"/>
+        <v>362.37</v>
+      </c>
     </row>
-    <row r="18" spans="1:112" ht="47" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:120" ht="62.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
         <v>22</v>
       </c>
@@ -6208,7 +6649,7 @@
         <v>19</v>
       </c>
       <c r="R18">
-        <f t="shared" si="58"/>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="S18">
@@ -6258,7 +6699,7 @@
         <v>19</v>
       </c>
       <c r="AK18">
-        <f t="shared" si="59"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="AL18">
@@ -6454,8 +6895,35 @@
         <f t="shared" si="23"/>
         <v>3</v>
       </c>
+      <c r="DJ18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="DK18">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="DL18">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="DM18">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="DN18">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="DO18">
+        <f t="shared" si="62"/>
+        <v>7365.56</v>
+      </c>
+      <c r="DP18">
+        <f t="shared" si="63"/>
+        <v>1234.3499999999999</v>
+      </c>
     </row>
-    <row r="19" spans="1:112" ht="47" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:120" ht="62.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
@@ -6492,7 +6960,7 @@
         <v>22</v>
       </c>
       <c r="R19">
-        <f t="shared" si="58"/>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="S19">
@@ -6542,7 +7010,7 @@
         <v>22</v>
       </c>
       <c r="AK19">
-        <f t="shared" si="59"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="AL19">
@@ -6738,8 +7206,35 @@
         <f t="shared" si="23"/>
         <v>3</v>
       </c>
+      <c r="DJ19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="DK19">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="DL19">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="DM19">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="DN19">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="DO19">
+        <f t="shared" si="62"/>
+        <v>6767.29</v>
+      </c>
+      <c r="DP19">
+        <f t="shared" si="63"/>
+        <v>230.7</v>
+      </c>
     </row>
-    <row r="20" spans="1:112" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:120" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
         <v>7</v>
       </c>
@@ -6776,7 +7271,7 @@
         <v>17</v>
       </c>
       <c r="R20">
-        <f t="shared" si="58"/>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="S20">
@@ -6826,7 +7321,7 @@
         <v>17</v>
       </c>
       <c r="AK20">
-        <f t="shared" si="59"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="AL20">
@@ -7022,8 +7517,35 @@
         <f t="shared" si="23"/>
         <v>3</v>
       </c>
+      <c r="DJ20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="DK20">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="DL20">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="DM20">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="DN20">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="DO20">
+        <f t="shared" si="62"/>
+        <v>5999.5</v>
+      </c>
+      <c r="DP20">
+        <f t="shared" si="63"/>
+        <v>2375.4</v>
+      </c>
     </row>
-    <row r="21" spans="1:112" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:120" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
@@ -7060,7 +7582,7 @@
         <v>7</v>
       </c>
       <c r="R21">
-        <f t="shared" si="58"/>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="S21">
@@ -7110,7 +7632,7 @@
         <v>7</v>
       </c>
       <c r="AK21">
-        <f t="shared" si="59"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="AL21">
@@ -7306,8 +7828,35 @@
         <f t="shared" si="23"/>
         <v>3</v>
       </c>
+      <c r="DJ21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="DK21">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="DL21">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="DM21">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="DN21">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="DO21">
+        <f t="shared" si="62"/>
+        <v>5570.94</v>
+      </c>
+      <c r="DP21">
+        <f t="shared" si="63"/>
+        <v>996.35</v>
+      </c>
     </row>
-    <row r="22" spans="1:112" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:120" ht="47" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
         <v>26</v>
       </c>
@@ -7344,7 +7893,7 @@
         <v>20</v>
       </c>
       <c r="R22">
-        <f t="shared" si="58"/>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="S22">
@@ -7394,7 +7943,7 @@
         <v>20</v>
       </c>
       <c r="AK22">
-        <f t="shared" si="59"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="AL22">
@@ -7590,8 +8139,35 @@
         <f t="shared" si="23"/>
         <v>3</v>
       </c>
+      <c r="DJ22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="DK22">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="DL22">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="DM22">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="DN22">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="DO22">
+        <f t="shared" si="62"/>
+        <v>4837.49</v>
+      </c>
+      <c r="DP22">
+        <f t="shared" si="63"/>
+        <v>391.12</v>
+      </c>
     </row>
-    <row r="23" spans="1:112" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:120" ht="47" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
@@ -7628,7 +8204,7 @@
         <v>26</v>
       </c>
       <c r="R23">
-        <f t="shared" si="58"/>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="S23">
@@ -7678,7 +8254,7 @@
         <v>26</v>
       </c>
       <c r="AK23">
-        <f t="shared" si="59"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="AL23">
@@ -7874,8 +8450,35 @@
         <f t="shared" si="23"/>
         <v>3</v>
       </c>
+      <c r="DJ23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="DK23">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="DL23">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="DM23">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="DN23">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="DO23">
+        <f t="shared" si="62"/>
+        <v>4315.16</v>
+      </c>
+      <c r="DP23">
+        <f t="shared" si="63"/>
+        <v>1748.69</v>
+      </c>
     </row>
-    <row r="24" spans="1:112" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:120" ht="47" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
         <v>28</v>
       </c>
@@ -7912,7 +8515,7 @@
         <v>21</v>
       </c>
       <c r="R24">
-        <f t="shared" si="58"/>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="S24">
@@ -7962,7 +8565,7 @@
         <v>21</v>
       </c>
       <c r="AK24">
-        <f t="shared" si="59"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="AL24">
@@ -8158,8 +8761,35 @@
         <f t="shared" si="23"/>
         <v>3</v>
       </c>
+      <c r="DJ24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="DK24">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="DL24">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="DM24">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="DN24">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="DO24">
+        <f t="shared" si="62"/>
+        <v>3800.34</v>
+      </c>
+      <c r="DP24">
+        <f t="shared" si="63"/>
+        <v>234.89</v>
+      </c>
     </row>
-    <row r="25" spans="1:112" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:120" ht="62.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
         <v>25</v>
       </c>
@@ -8196,7 +8826,7 @@
         <v>28</v>
       </c>
       <c r="R25">
-        <f t="shared" si="58"/>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="S25">
@@ -8246,7 +8876,7 @@
         <v>28</v>
       </c>
       <c r="AK25">
-        <f t="shared" si="59"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="AL25">
@@ -8442,8 +9072,35 @@
         <f t="shared" si="23"/>
         <v>3</v>
       </c>
+      <c r="DJ25" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="DK25">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="DL25">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="DM25">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="DN25">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="DO25">
+        <f t="shared" si="62"/>
+        <v>3787.5</v>
+      </c>
+      <c r="DP25">
+        <f t="shared" si="63"/>
+        <v>323.08999999999997</v>
+      </c>
     </row>
-    <row r="26" spans="1:112" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:120" ht="47" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
         <v>34</v>
       </c>
@@ -8480,7 +9137,7 @@
         <v>25</v>
       </c>
       <c r="R26">
-        <f t="shared" si="58"/>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="S26">
@@ -8530,7 +9187,7 @@
         <v>25</v>
       </c>
       <c r="AK26">
-        <f t="shared" si="59"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="AL26">
@@ -8726,8 +9383,35 @@
         <f t="shared" si="23"/>
         <v>3</v>
       </c>
+      <c r="DJ26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="DK26">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="DL26">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="DM26">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="DN26">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="DO26">
+        <f t="shared" si="62"/>
+        <v>3702.21</v>
+      </c>
+      <c r="DP26">
+        <f t="shared" si="63"/>
+        <v>175.91</v>
+      </c>
     </row>
-    <row r="27" spans="1:112" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:120" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
         <v>35</v>
       </c>
@@ -8764,7 +9448,7 @@
         <v>34</v>
       </c>
       <c r="R27">
-        <f t="shared" si="58"/>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="S27">
@@ -8814,7 +9498,7 @@
         <v>34</v>
       </c>
       <c r="AK27">
-        <f t="shared" si="59"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="AL27">
@@ -9010,8 +9694,35 @@
         <f t="shared" si="23"/>
         <v>3</v>
       </c>
+      <c r="DJ27" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="DK27">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="DL27">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="DM27">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="DN27">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="DO27">
+        <f t="shared" si="62"/>
+        <v>3699.5</v>
+      </c>
+      <c r="DP27">
+        <f t="shared" si="63"/>
+        <v>261.67</v>
+      </c>
     </row>
-    <row r="28" spans="1:112" ht="47" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:120" ht="62.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
         <v>9</v>
       </c>
@@ -9048,7 +9759,7 @@
         <v>35</v>
       </c>
       <c r="R28">
-        <f t="shared" si="58"/>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="S28">
@@ -9098,7 +9809,7 @@
         <v>35</v>
       </c>
       <c r="AK28">
-        <f t="shared" si="59"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="AL28">
@@ -9294,8 +10005,35 @@
         <f t="shared" si="23"/>
         <v>3</v>
       </c>
+      <c r="DJ28" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="DK28">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="DL28">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="DM28">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="DN28">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="DO28">
+        <f t="shared" si="62"/>
+        <v>2994.98</v>
+      </c>
+      <c r="DP28">
+        <f t="shared" si="63"/>
+        <v>95.83</v>
+      </c>
     </row>
-    <row r="29" spans="1:112" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:120" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="1" t="s">
         <v>29</v>
       </c>
@@ -9332,7 +10070,7 @@
         <v>9</v>
       </c>
       <c r="R29">
-        <f t="shared" si="58"/>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="S29">
@@ -9382,7 +10120,7 @@
         <v>9</v>
       </c>
       <c r="AK29">
-        <f t="shared" si="59"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="AL29">
@@ -9578,8 +10316,35 @@
         <f t="shared" si="23"/>
         <v>3</v>
       </c>
+      <c r="DJ29" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="DK29">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="DL29">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="DM29">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="DN29">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="DO29">
+        <f t="shared" si="62"/>
+        <v>2752.62</v>
+      </c>
+      <c r="DP29">
+        <f t="shared" si="63"/>
+        <v>101.95</v>
+      </c>
     </row>
-    <row r="30" spans="1:112" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:120" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="1" t="s">
         <v>36</v>
       </c>
@@ -9616,7 +10381,7 @@
         <v>29</v>
       </c>
       <c r="R30">
-        <f t="shared" si="58"/>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="S30">
@@ -9666,7 +10431,7 @@
         <v>29</v>
       </c>
       <c r="AK30">
-        <f t="shared" si="59"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="AL30">
@@ -9862,8 +10627,35 @@
         <f t="shared" si="23"/>
         <v>3</v>
       </c>
+      <c r="DJ30" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="DK30">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="DL30">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="DM30">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="DN30">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="DO30">
+        <f t="shared" si="62"/>
+        <v>2672.97</v>
+      </c>
+      <c r="DP30">
+        <f t="shared" si="63"/>
+        <v>276.88</v>
+      </c>
     </row>
-    <row r="31" spans="1:112" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:120" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="1" t="s">
         <v>31</v>
       </c>
@@ -9900,7 +10692,7 @@
         <v>36</v>
       </c>
       <c r="R31">
-        <f t="shared" si="58"/>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="S31">
@@ -9950,7 +10742,7 @@
         <v>36</v>
       </c>
       <c r="AK31">
-        <f t="shared" si="59"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="AL31">
@@ -10146,8 +10938,35 @@
         <f t="shared" si="23"/>
         <v>3</v>
       </c>
+      <c r="DJ31" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="DK31">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="DL31">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="DM31">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="DN31">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="DO31">
+        <f t="shared" si="62"/>
+        <v>2321.91</v>
+      </c>
+      <c r="DP31">
+        <f t="shared" si="63"/>
+        <v>292.91000000000003</v>
+      </c>
     </row>
-    <row r="32" spans="1:112" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:120" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="1" t="s">
         <v>33</v>
       </c>
@@ -10184,7 +11003,7 @@
         <v>31</v>
       </c>
       <c r="R32">
-        <f t="shared" si="58"/>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="S32">
@@ -10234,7 +11053,7 @@
         <v>31</v>
       </c>
       <c r="AK32">
-        <f t="shared" si="59"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="AL32">
@@ -10430,8 +11249,35 @@
         <f t="shared" si="23"/>
         <v>3</v>
       </c>
+      <c r="DJ32" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="DK32">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="DL32">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="DM32">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="DN32">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="DO32">
+        <f t="shared" si="62"/>
+        <v>2086</v>
+      </c>
+      <c r="DP32">
+        <f t="shared" si="63"/>
+        <v>211.07</v>
+      </c>
     </row>
-    <row r="33" spans="1:112" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:120" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="1" t="s">
         <v>30</v>
       </c>
@@ -10468,7 +11314,7 @@
         <v>33</v>
       </c>
       <c r="R33">
-        <f t="shared" si="58"/>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="S33">
@@ -10518,7 +11364,7 @@
         <v>33</v>
       </c>
       <c r="AK33">
-        <f t="shared" si="59"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="AL33">
@@ -10714,8 +11560,35 @@
         <f t="shared" si="23"/>
         <v>3</v>
       </c>
+      <c r="DJ33" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="DK33">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="DL33">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="DM33">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="DN33">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="DO33">
+        <f t="shared" si="62"/>
+        <v>1762.86</v>
+      </c>
+      <c r="DP33">
+        <f t="shared" si="63"/>
+        <v>59.37</v>
+      </c>
     </row>
-    <row r="34" spans="1:112" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:120" ht="47" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="1" t="s">
         <v>24</v>
       </c>
@@ -10752,7 +11625,7 @@
         <v>30</v>
       </c>
       <c r="R34">
-        <f t="shared" si="58"/>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="S34">
@@ -10802,7 +11675,7 @@
         <v>30</v>
       </c>
       <c r="AK34">
-        <f t="shared" si="59"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="AL34">
@@ -10998,8 +11871,35 @@
         <f t="shared" si="23"/>
         <v>3</v>
       </c>
+      <c r="DJ34" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="DK34">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="DL34">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="DM34">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="DN34">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="DO34">
+        <f t="shared" si="62"/>
+        <v>1748.11</v>
+      </c>
+      <c r="DP34">
+        <f t="shared" si="63"/>
+        <v>158.86000000000001</v>
+      </c>
     </row>
-    <row r="35" spans="1:112" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:120" ht="47" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" s="1" t="s">
         <v>32</v>
       </c>
@@ -11036,7 +11936,7 @@
         <v>24</v>
       </c>
       <c r="R35">
-        <f t="shared" si="58"/>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="S35">
@@ -11086,7 +11986,7 @@
         <v>24</v>
       </c>
       <c r="AK35">
-        <f t="shared" si="59"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="AL35">
@@ -11282,13 +12182,40 @@
         <f t="shared" si="23"/>
         <v>3</v>
       </c>
+      <c r="DJ35" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="DK35">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="DL35">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="DM35">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="DN35">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="DO35">
+        <f t="shared" si="62"/>
+        <v>707.48</v>
+      </c>
+      <c r="DP35">
+        <f t="shared" si="63"/>
+        <v>100.04</v>
+      </c>
     </row>
-    <row r="36" spans="1:112" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:120" ht="47" thickBot="1" x14ac:dyDescent="0.4">
       <c r="Q36" s="1" t="s">
         <v>32</v>
       </c>
       <c r="R36">
-        <f t="shared" si="58"/>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="S36">
@@ -11315,7 +12242,7 @@
         <v>32</v>
       </c>
       <c r="AK36">
-        <f t="shared" si="59"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="AL36">
@@ -11419,8 +12346,35 @@
         <f t="shared" si="56"/>
         <v>103.89</v>
       </c>
+      <c r="DJ36" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="DK36">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="DL36">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="DM36">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="DN36">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="DO36">
+        <f t="shared" si="62"/>
+        <v>626.54</v>
+      </c>
+      <c r="DP36">
+        <f t="shared" si="63"/>
+        <v>103.89</v>
+      </c>
     </row>
-    <row r="37" spans="1:112" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:120" ht="15.5" x14ac:dyDescent="0.35">
       <c r="Q37" s="5" t="s">
         <v>52</v>
       </c>
@@ -11433,19 +12387,19 @@
         <v>37859.539999999994</v>
       </c>
       <c r="T37">
-        <f t="shared" ref="T37:W37" si="60">SUM(T3:T36)</f>
+        <f t="shared" ref="T37:W37" si="66">SUM(T3:T36)</f>
         <v>206545.93999999997</v>
       </c>
       <c r="U37">
-        <f t="shared" si="60"/>
+        <f t="shared" si="66"/>
         <v>22464.679999999997</v>
       </c>
       <c r="V37">
-        <f t="shared" si="60"/>
+        <f t="shared" si="66"/>
         <v>17673.47</v>
       </c>
       <c r="W37">
-        <f t="shared" si="60"/>
+        <f t="shared" si="66"/>
         <v>1400.8</v>
       </c>
       <c r="AJ37" s="5" t="s">
@@ -11460,19 +12414,19 @@
         <v>37859.539999999994</v>
       </c>
       <c r="AM37">
-        <f t="shared" ref="AM37:AP37" si="61">SUM(AM3:AM36)</f>
+        <f t="shared" ref="AM37:AP37" si="67">SUM(AM3:AM36)</f>
         <v>176832.8</v>
       </c>
       <c r="AN37">
-        <f t="shared" si="61"/>
+        <f t="shared" si="67"/>
         <v>18332.960000000003</v>
       </c>
       <c r="AO37">
-        <f t="shared" si="61"/>
+        <f t="shared" si="67"/>
         <v>47386.61</v>
       </c>
       <c r="AP37">
-        <f t="shared" si="61"/>
+        <f t="shared" si="67"/>
         <v>5532.5199999999986</v>
       </c>
       <c r="BD37" s="5" t="s">
@@ -11487,19 +12441,19 @@
         <v>37859.539999999994</v>
       </c>
       <c r="BG37">
-        <f t="shared" ref="BG37" si="62">SUM(BG3:BG36)</f>
+        <f t="shared" ref="BG37" si="68">SUM(BG3:BG36)</f>
         <v>164066.00999999998</v>
       </c>
       <c r="BH37">
-        <f t="shared" ref="BH37" si="63">SUM(BH3:BH36)</f>
+        <f t="shared" ref="BH37" si="69">SUM(BH3:BH36)</f>
         <v>15726.86</v>
       </c>
       <c r="BI37">
-        <f t="shared" ref="BI37" si="64">SUM(BI3:BI36)</f>
+        <f t="shared" ref="BI37" si="70">SUM(BI3:BI36)</f>
         <v>60153.400000000009</v>
       </c>
       <c r="BJ37">
-        <f t="shared" ref="BJ37" si="65">SUM(BJ3:BJ36)</f>
+        <f t="shared" ref="BJ37" si="71">SUM(BJ3:BJ36)</f>
         <v>8138.62</v>
       </c>
       <c r="BX37" s="5" t="s">
@@ -11514,19 +12468,19 @@
         <v>37859.539999999994</v>
       </c>
       <c r="CA37">
-        <f t="shared" ref="CA37" si="66">SUM(CA3:CA36)</f>
+        <f t="shared" ref="CA37" si="72">SUM(CA3:CA36)</f>
         <v>133922.62</v>
       </c>
       <c r="CB37">
-        <f t="shared" ref="CB37" si="67">SUM(CB3:CB36)</f>
+        <f t="shared" ref="CB37" si="73">SUM(CB3:CB36)</f>
         <v>11401.87</v>
       </c>
       <c r="CC37">
-        <f t="shared" ref="CC37" si="68">SUM(CC3:CC36)</f>
+        <f t="shared" ref="CC37" si="74">SUM(CC3:CC36)</f>
         <v>90296.79</v>
       </c>
       <c r="CD37">
-        <f t="shared" ref="CD37" si="69">SUM(CD3:CD36)</f>
+        <f t="shared" ref="CD37" si="75">SUM(CD3:CD36)</f>
         <v>12463.610000000002</v>
       </c>
       <c r="CQ37" s="5" t="s">
@@ -11541,23 +12495,50 @@
         <v>37859.539999999994</v>
       </c>
       <c r="CT37">
-        <f t="shared" ref="CT37" si="70">SUM(CT3:CT36)</f>
+        <f t="shared" ref="CT37" si="76">SUM(CT3:CT36)</f>
         <v>125010.57</v>
       </c>
       <c r="CU37">
-        <f t="shared" ref="CU37" si="71">SUM(CU3:CU36)</f>
+        <f t="shared" ref="CU37" si="77">SUM(CU3:CU36)</f>
         <v>10817.51</v>
       </c>
       <c r="CV37">
-        <f t="shared" ref="CV37:CW37" si="72">SUM(CV3:CV36)</f>
+        <f t="shared" ref="CV37:CW37" si="78">SUM(CV3:CV36)</f>
         <v>99208.839999999982</v>
       </c>
       <c r="CW37">
-        <f t="shared" si="72"/>
+        <f t="shared" si="78"/>
         <v>13047.970000000003</v>
       </c>
+      <c r="DJ37" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="DK37">
+        <f>SUM(DK3:DK36)</f>
+        <v>213563.8</v>
+      </c>
+      <c r="DL37">
+        <f>SUM(DL3:DL36)</f>
+        <v>37859.539999999994</v>
+      </c>
+      <c r="DM37">
+        <f t="shared" ref="DM37:DP37" si="79">SUM(DM3:DM36)</f>
+        <v>125010.57</v>
+      </c>
+      <c r="DN37">
+        <f t="shared" si="79"/>
+        <v>10817.51</v>
+      </c>
+      <c r="DO37">
+        <f t="shared" si="79"/>
+        <v>99208.839999999982</v>
+      </c>
+      <c r="DP37">
+        <f t="shared" si="79"/>
+        <v>13047.970000000003</v>
+      </c>
     </row>
-    <row r="38" spans="1:112" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:120" ht="31" x14ac:dyDescent="0.35">
       <c r="Q38" s="4" t="s">
         <v>53</v>
       </c>
@@ -11566,23 +12547,23 @@
         <v>3</v>
       </c>
       <c r="S38">
-        <f t="shared" ref="S38:W38" si="73">COUNTIF(S3:S36,"&lt;&gt;0")</f>
+        <f t="shared" ref="S38:W38" si="80">COUNTIF(S3:S36,"&lt;&gt;0")</f>
         <v>3</v>
       </c>
       <c r="T38">
-        <f t="shared" si="73"/>
+        <f t="shared" si="80"/>
         <v>22</v>
       </c>
       <c r="U38">
-        <f t="shared" si="73"/>
+        <f t="shared" si="80"/>
         <v>22</v>
       </c>
       <c r="V38">
-        <f t="shared" si="73"/>
+        <f t="shared" si="80"/>
         <v>9</v>
       </c>
       <c r="W38">
-        <f t="shared" si="73"/>
+        <f t="shared" si="80"/>
         <v>9</v>
       </c>
       <c r="AJ38" s="4" t="s">
@@ -11593,23 +12574,23 @@
         <v>3</v>
       </c>
       <c r="AL38">
-        <f t="shared" ref="AL38:AP38" si="74">COUNTIF(AL3:AL36,"&lt;&gt;0")</f>
+        <f t="shared" ref="AL38:AP38" si="81">COUNTIF(AL3:AL36,"&lt;&gt;0")</f>
         <v>3</v>
       </c>
       <c r="AM38">
-        <f t="shared" si="74"/>
+        <f t="shared" si="81"/>
         <v>15</v>
       </c>
       <c r="AN38">
-        <f t="shared" si="74"/>
+        <f t="shared" si="81"/>
         <v>15</v>
       </c>
       <c r="AO38">
-        <f t="shared" si="74"/>
+        <f t="shared" si="81"/>
         <v>16</v>
       </c>
       <c r="AP38">
-        <f t="shared" si="74"/>
+        <f t="shared" si="81"/>
         <v>16</v>
       </c>
       <c r="BD38" s="4" t="s">
@@ -11620,23 +12601,23 @@
         <v>3</v>
       </c>
       <c r="BF38">
-        <f t="shared" ref="BF38:BJ38" si="75">COUNTIF(BF3:BF36,"&lt;&gt;0")</f>
+        <f t="shared" ref="BF38:BJ38" si="82">COUNTIF(BF3:BF36,"&lt;&gt;0")</f>
         <v>3</v>
       </c>
       <c r="BG38">
-        <f t="shared" si="75"/>
+        <f t="shared" si="82"/>
         <v>13</v>
       </c>
       <c r="BH38">
-        <f t="shared" si="75"/>
+        <f t="shared" si="82"/>
         <v>13</v>
       </c>
       <c r="BI38">
-        <f t="shared" si="75"/>
+        <f t="shared" si="82"/>
         <v>18</v>
       </c>
       <c r="BJ38">
-        <f t="shared" si="75"/>
+        <f t="shared" si="82"/>
         <v>18</v>
       </c>
       <c r="BX38" s="4" t="s">
@@ -11647,23 +12628,23 @@
         <v>3</v>
       </c>
       <c r="BZ38">
-        <f t="shared" ref="BZ38:CD38" si="76">COUNTIF(BZ3:BZ36,"&lt;&gt;0")</f>
+        <f t="shared" ref="BZ38:CD38" si="83">COUNTIF(BZ3:BZ36,"&lt;&gt;0")</f>
         <v>3</v>
       </c>
       <c r="CA38">
-        <f t="shared" si="76"/>
+        <f t="shared" si="83"/>
         <v>9</v>
       </c>
       <c r="CB38">
-        <f t="shared" si="76"/>
+        <f t="shared" si="83"/>
         <v>9</v>
       </c>
       <c r="CC38">
-        <f t="shared" si="76"/>
+        <f t="shared" si="83"/>
         <v>22</v>
       </c>
       <c r="CD38">
-        <f t="shared" si="76"/>
+        <f t="shared" si="83"/>
         <v>22</v>
       </c>
       <c r="CQ38" s="4" t="s">
@@ -11674,27 +12655,54 @@
         <v>3</v>
       </c>
       <c r="CS38">
-        <f t="shared" ref="CS38:CV38" si="77">COUNTIF(CS3:CS36,"&lt;&gt;0")</f>
+        <f t="shared" ref="CS38:CV38" si="84">COUNTIF(CS3:CS36,"&lt;&gt;0")</f>
         <v>3</v>
       </c>
       <c r="CT38">
-        <f t="shared" si="77"/>
+        <f t="shared" si="84"/>
         <v>8</v>
       </c>
       <c r="CU38">
-        <f t="shared" si="77"/>
+        <f t="shared" si="84"/>
         <v>8</v>
       </c>
       <c r="CV38">
-        <f t="shared" si="77"/>
+        <f t="shared" si="84"/>
         <v>23</v>
       </c>
       <c r="CW38">
-        <f t="shared" ref="CW38" si="78">COUNTIF(CW3:CW36,"&lt;&gt;0")</f>
+        <f t="shared" ref="CW38" si="85">COUNTIF(CW3:CW36,"&lt;&gt;0")</f>
         <v>23</v>
       </c>
+      <c r="DJ38" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="DK38">
+        <f>COUNTIF(DK3:DK36,"&lt;&gt;0")</f>
+        <v>3</v>
+      </c>
+      <c r="DL38">
+        <f>COUNTIF(DL3:DL36,"&lt;&gt;0")</f>
+        <v>3</v>
+      </c>
+      <c r="DM38">
+        <f t="shared" ref="DM38:DP38" si="86">COUNTIF(DM3:DM36,"&lt;&gt;0")</f>
+        <v>8</v>
+      </c>
+      <c r="DN38">
+        <f t="shared" si="86"/>
+        <v>8</v>
+      </c>
+      <c r="DO38">
+        <f t="shared" si="86"/>
+        <v>23</v>
+      </c>
+      <c r="DP38">
+        <f t="shared" si="86"/>
+        <v>23</v>
+      </c>
     </row>
-    <row r="39" spans="1:112" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:120" ht="15.5" x14ac:dyDescent="0.35">
       <c r="Q39" s="4" t="s">
         <v>54</v>
       </c>
@@ -11703,23 +12711,23 @@
         <v>71187.933333333334</v>
       </c>
       <c r="S39">
-        <f t="shared" ref="S39:W39" si="79">S37/S38</f>
+        <f t="shared" ref="S39:W39" si="87">S37/S38</f>
         <v>12619.846666666665</v>
       </c>
       <c r="T39">
-        <f t="shared" si="79"/>
+        <f t="shared" si="87"/>
         <v>9388.4518181818166</v>
       </c>
       <c r="U39">
-        <f t="shared" si="79"/>
+        <f t="shared" si="87"/>
         <v>1021.1218181818181</v>
       </c>
       <c r="V39">
-        <f t="shared" si="79"/>
+        <f t="shared" si="87"/>
         <v>1963.7188888888891</v>
       </c>
       <c r="W39">
-        <f t="shared" si="79"/>
+        <f t="shared" si="87"/>
         <v>155.64444444444445</v>
       </c>
       <c r="AJ39" s="4" t="s">
@@ -11730,23 +12738,23 @@
         <v>71187.933333333334</v>
       </c>
       <c r="AL39">
-        <f t="shared" ref="AL39:AP39" si="80">AL37/AL38</f>
+        <f t="shared" ref="AL39:AP39" si="88">AL37/AL38</f>
         <v>12619.846666666665</v>
       </c>
       <c r="AM39">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>11788.853333333333</v>
       </c>
       <c r="AN39">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>1222.1973333333335</v>
       </c>
       <c r="AO39">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>2961.663125</v>
       </c>
       <c r="AP39">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>345.78249999999991</v>
       </c>
       <c r="BD39" s="4" t="s">
@@ -11757,23 +12765,23 @@
         <v>71187.933333333334</v>
       </c>
       <c r="BF39">
-        <f t="shared" ref="BF39" si="81">BF37/BF38</f>
+        <f t="shared" ref="BF39" si="89">BF37/BF38</f>
         <v>12619.846666666665</v>
       </c>
       <c r="BG39">
-        <f t="shared" ref="BG39" si="82">BG37/BG38</f>
+        <f t="shared" ref="BG39" si="90">BG37/BG38</f>
         <v>12620.462307692305</v>
       </c>
       <c r="BH39">
-        <f t="shared" ref="BH39" si="83">BH37/BH38</f>
+        <f t="shared" ref="BH39" si="91">BH37/BH38</f>
         <v>1209.7584615384617</v>
       </c>
       <c r="BI39">
-        <f t="shared" ref="BI39" si="84">BI37/BI38</f>
+        <f t="shared" ref="BI39" si="92">BI37/BI38</f>
         <v>3341.8555555555558</v>
       </c>
       <c r="BJ39">
-        <f t="shared" ref="BJ39" si="85">BJ37/BJ38</f>
+        <f t="shared" ref="BJ39" si="93">BJ37/BJ38</f>
         <v>452.14555555555557</v>
       </c>
       <c r="BX39" s="4" t="s">
@@ -11784,23 +12792,23 @@
         <v>71187.933333333334</v>
       </c>
       <c r="BZ39">
-        <f t="shared" ref="BZ39" si="86">BZ37/BZ38</f>
+        <f t="shared" ref="BZ39" si="94">BZ37/BZ38</f>
         <v>12619.846666666665</v>
       </c>
       <c r="CA39">
-        <f t="shared" ref="CA39" si="87">CA37/CA38</f>
+        <f t="shared" ref="CA39" si="95">CA37/CA38</f>
         <v>14880.29111111111</v>
       </c>
       <c r="CB39">
-        <f t="shared" ref="CB39" si="88">CB37/CB38</f>
+        <f t="shared" ref="CB39" si="96">CB37/CB38</f>
         <v>1266.8744444444446</v>
       </c>
       <c r="CC39">
-        <f t="shared" ref="CC39" si="89">CC37/CC38</f>
+        <f t="shared" ref="CC39" si="97">CC37/CC38</f>
         <v>4104.3995454545448</v>
       </c>
       <c r="CD39">
-        <f t="shared" ref="CD39" si="90">CD37/CD38</f>
+        <f t="shared" ref="CD39" si="98">CD37/CD38</f>
         <v>566.52772727272736</v>
       </c>
       <c r="CQ39" s="4" t="s">
@@ -11811,23 +12819,50 @@
         <v>71187.933333333334</v>
       </c>
       <c r="CS39">
-        <f t="shared" ref="CS39" si="91">CS37/CS38</f>
+        <f t="shared" ref="CS39" si="99">CS37/CS38</f>
         <v>12619.846666666665</v>
       </c>
       <c r="CT39">
-        <f t="shared" ref="CT39" si="92">CT37/CT38</f>
+        <f t="shared" ref="CT39" si="100">CT37/CT38</f>
         <v>15626.321250000001</v>
       </c>
       <c r="CU39">
-        <f t="shared" ref="CU39" si="93">CU37/CU38</f>
+        <f t="shared" ref="CU39" si="101">CU37/CU38</f>
         <v>1352.18875</v>
       </c>
       <c r="CV39">
-        <f t="shared" ref="CV39:CW39" si="94">CV37/CV38</f>
+        <f t="shared" ref="CV39:CW39" si="102">CV37/CV38</f>
         <v>4313.427826086956</v>
       </c>
       <c r="CW39">
-        <f t="shared" si="94"/>
+        <f t="shared" si="102"/>
+        <v>567.30304347826097</v>
+      </c>
+      <c r="DJ39" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="DK39">
+        <f t="shared" ref="DK39:DP39" si="103">DK37/DK38</f>
+        <v>71187.933333333334</v>
+      </c>
+      <c r="DL39">
+        <f t="shared" si="103"/>
+        <v>12619.846666666665</v>
+      </c>
+      <c r="DM39">
+        <f t="shared" si="103"/>
+        <v>15626.321250000001</v>
+      </c>
+      <c r="DN39">
+        <f t="shared" si="103"/>
+        <v>1352.18875</v>
+      </c>
+      <c r="DO39">
+        <f t="shared" si="103"/>
+        <v>4313.427826086956</v>
+      </c>
+      <c r="DP39">
+        <f t="shared" si="103"/>
         <v>567.30304347826097</v>
       </c>
     </row>
@@ -11837,7 +12872,10 @@
       <sortCondition descending="1" ref="B1"/>
     </sortState>
   </autoFilter>
-  <mergeCells count="15">
+  <mergeCells count="18">
+    <mergeCell ref="DK1:DL1"/>
+    <mergeCell ref="DM1:DN1"/>
+    <mergeCell ref="DO1:DP1"/>
     <mergeCell ref="R1:S1"/>
     <mergeCell ref="T1:U1"/>
     <mergeCell ref="V1:W1"/>
@@ -11863,8 +12901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C137313-F288-41E8-916B-A79892459D9E}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11881,7 +12919,7 @@
       <c r="A2" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="14" t="s">
         <v>66</v>
       </c>
     </row>
@@ -11889,7 +12927,7 @@
       <c r="A3" t="s">
         <v>68</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="14" t="s">
         <v>66</v>
       </c>
     </row>
